--- a/data/trans_dic/P1422-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1422-Provincia-trans_dic.xlsx
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006415510085407081</v>
+        <v>0.006442504777778587</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002669115228105052</v>
+        <v>0.002700582187672921</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.003389872577546578</v>
+        <v>0.003516612479284234</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.001362923031130362</v>
+        <v>0.001358676615996223</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0</v>
+        <v>0.0006742930357054021</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03536060894648765</v>
+        <v>0.03556748853438453</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02376239238540591</v>
+        <v>0.02277564397558994</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01106098324268203</v>
+        <v>0.01053707544083176</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02048423488879667</v>
+        <v>0.01590463507299552</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.01100550112698886</v>
+        <v>0.01030284499413077</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02052460467871844</v>
+        <v>0.02040358461335071</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01350005011021222</v>
+        <v>0.01190229397157158</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.007017329716568176</v>
+        <v>0.008066726215387411</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.0123182664728153</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.007942571668291997</v>
+        <v>0.007942571668291995</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.008666622415047743</v>
@@ -780,29 +780,29 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008642739610426916</v>
+        <v>0.008413747341689721</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004457439233305843</v>
+        <v>0.005246030713277674</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001852550336140485</v>
+        <v>0.001897625815593646</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002042168186954091</v>
+        <v>0.00205958536272988</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
-        <v>0.002342556232823546</v>
+        <v>0.002394520204972132</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.00731866307443085</v>
+        <v>0.007587102390467742</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002142699107311153</v>
+        <v>0.0021875060252158</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003597010928888558</v>
+        <v>0.003696768942845114</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +813,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0412075122997927</v>
+        <v>0.04443715512207772</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02519902350622144</v>
+        <v>0.02593254455725579</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01857657776129357</v>
+        <v>0.02018579344159278</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0203122227724341</v>
+        <v>0.01959623247903504</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.01565614127618594</v>
+        <v>0.01757286702041908</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02719354852538657</v>
+        <v>0.02516374656293206</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0118592885474544</v>
+        <v>0.01297449238190266</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01315809122194985</v>
+        <v>0.01422778941578643</v>
       </c>
     </row>
     <row r="10">
@@ -885,13 +885,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002861162724183346</v>
+        <v>0.002852684461195021</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002430134529983463</v>
+        <v>0.002429405452355717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01638820203697616</v>
+        <v>0.01671208754983006</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
@@ -900,16 +900,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.005194410920264632</v>
+        <v>0.004735694888589002</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002889487700058876</v>
+        <v>0.002975851228115741</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.001339160542207527</v>
+        <v>0.001525034525589141</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01267990676840275</v>
+        <v>0.01279843702305247</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02312822782956424</v>
+        <v>0.0273124422253222</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02244930719888069</v>
+        <v>0.02308193934609938</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04661360293136795</v>
+        <v>0.04567049099914249</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02506552009378121</v>
+        <v>0.0221304511463502</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01683830948639857</v>
+        <v>0.01785938380550144</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02224330210842471</v>
+        <v>0.02242583587539502</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0170273705295991</v>
+        <v>0.01553359256213115</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01331127911189509</v>
+        <v>0.01307664999606257</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03023389227382945</v>
+        <v>0.03072733428883563</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.010904821954401</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.009297602865685789</v>
+        <v>0.009297602865685786</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002490685537566373</v>
+        <v>0.002462245944642674</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002405738913841851</v>
+        <v>0.002395273629900901</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002528013050024615</v>
+        <v>0.002540505187686616</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.003114390501626348</v>
+        <v>0.003105571345088401</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.004758482142574076</v>
+        <v>0.004786780085468193</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003844758775608412</v>
+        <v>0.003806337306017993</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.004391498197663288</v>
+        <v>0.005309851341421673</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.004454954752843368</v>
+        <v>0.004586862276592444</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02333371672891337</v>
+        <v>0.02070676934462075</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02436380744077366</v>
+        <v>0.02099084962345664</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02862032012607018</v>
+        <v>0.02710241304499971</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02363290720473948</v>
+        <v>0.02561000668059041</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03885486240140187</v>
+        <v>0.0371191351563912</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01921396704606285</v>
+        <v>0.01931337364128156</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01710307214471588</v>
+        <v>0.01820541480531229</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02287073778808343</v>
+        <v>0.02339382984385993</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01822885610183215</v>
+        <v>0.01760474096990649</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>0.01947671245616796</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.01562217790713167</v>
+        <v>0.01562217790713168</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004757728443355388</v>
+        <v>0.004784820600270598</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004472955823678198</v>
+        <v>0.004475362422396659</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007595824910147517</v>
+        <v>0.006985595365610189</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.004479222488083544</v>
+        <v>0.004500872985619834</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.005424053031717041</v>
+        <v>0.005474938580308686</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.006519447311582033</v>
+        <v>0.006488538369954592</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.006932918267076755</v>
+        <v>0.006896027751391492</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.009197940056523916</v>
+        <v>0.008631173567764494</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.009020045970698373</v>
+        <v>0.008054711375126289</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04131144626892688</v>
+        <v>0.04538067121309634</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04294248993387078</v>
+        <v>0.04479036406582391</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03755406052597363</v>
+        <v>0.03930659147042125</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04123279517419978</v>
+        <v>0.04067658834306655</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04787508109977864</v>
+        <v>0.05256640911958461</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02586027875109101</v>
+        <v>0.02631413900438903</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03140036376278839</v>
+        <v>0.03448310747482794</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03608685310448254</v>
+        <v>0.03715110685992559</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02533237840800933</v>
+        <v>0.02556572353203185</v>
       </c>
     </row>
     <row r="19">
@@ -1218,23 +1218,23 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01154847993818473</v>
+        <v>0.01173370018987232</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>0.008739662174654047</v>
+        <v>0.009221142494129021</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.001736421364931407</v>
+        <v>0.001726692070245889</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01214560835659139</v>
+        <v>0.01208718967725846</v>
       </c>
     </row>
     <row r="21">
@@ -1245,29 +1245,29 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01757703716794301</v>
+        <v>0.02190474706834175</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01911122662901716</v>
+        <v>0.02174470001392027</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03811084149632653</v>
+        <v>0.03762698434082549</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02369544475583027</v>
+        <v>0.02721334645170253</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.03133948593424</v>
+        <v>0.03488199406123364</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01543188333368628</v>
+        <v>0.01664408452993988</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.00891750438025188</v>
+        <v>0.008955804692083571</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0298711745745203</v>
+        <v>0.02998218774157092</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.00565274560024799</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.01208484604639107</v>
+        <v>0.01208484604639108</v>
       </c>
     </row>
     <row r="23">
@@ -1323,25 +1323,25 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.005312289443205166</v>
+        <v>0.004114697250146637</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.001522293233679495</v>
+        <v>0.001519126624201178</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.001830424583004388</v>
+        <v>0.001835685375426398</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.007853180858466967</v>
+        <v>0.007373484570134302</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.002099007360804281</v>
+        <v>0.001571985162977205</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.001969402407194033</v>
+        <v>0.002582235144358529</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.007598206131157375</v>
+        <v>0.007517459317106211</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.009011718467066715</v>
+        <v>0.008671962972615436</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01575791311893263</v>
+        <v>0.01521849501781419</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02137867916860784</v>
+        <v>0.02012756105038881</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01512344409866435</v>
+        <v>0.01519239874569457</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01653660653936461</v>
+        <v>0.01599336447280935</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02222702669943672</v>
+        <v>0.02136444806377433</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.009191956367264975</v>
+        <v>0.009082675013056783</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01085296874527138</v>
+        <v>0.01437426586674175</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01781889346983302</v>
+        <v>0.01757616215381277</v>
       </c>
     </row>
     <row r="25">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.01343473454615542</v>
+        <v>0.01343473454615541</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.004037687296647937</v>
@@ -1426,29 +1426,29 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.002754819149873601</v>
+        <v>0.002901244932351216</v>
       </c>
       <c r="D26" s="5" t="inlineStr"/>
       <c r="E26" s="5" t="n">
-        <v>0.006585252029991252</v>
+        <v>0.007052675243643883</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.001283020378316181</v>
+        <v>0.00128633113998739</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.001318127018548842</v>
+        <v>0.001319185320437235</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0045429425907278</v>
+        <v>0.004526456769504743</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.002747026121045897</v>
+        <v>0.002882466441227544</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0006775918897829883</v>
+        <v>0.0006755594306963617</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.00713158198667851</v>
+        <v>0.007055482759034907</v>
       </c>
     </row>
     <row r="27">
@@ -1459,29 +1459,29 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01660201487775136</v>
+        <v>0.01902166503030282</v>
       </c>
       <c r="D27" s="5" t="inlineStr"/>
       <c r="E27" s="5" t="n">
-        <v>0.02242092037771243</v>
+        <v>0.0245863151966993</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01052904198486332</v>
+        <v>0.01080114056395496</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01602897544562179</v>
+        <v>0.01509141612108954</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01579828911423464</v>
+        <v>0.01600774160674309</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01090355280746047</v>
+        <v>0.0113211837430072</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.00817296726923205</v>
+        <v>0.007534551354548237</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01668894036920709</v>
+        <v>0.01678344028557361</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.006651291581707361</v>
+        <v>0.00642069125283814</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.003998457391142097</v>
+        <v>0.004021652876140054</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.009697682073014939</v>
+        <v>0.009445945279275846</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.004442681543968316</v>
+        <v>0.004766138290239293</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.003459998997012412</v>
+        <v>0.003376992085204773</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.007994894999724122</v>
+        <v>0.008094529620521167</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.006210465108597622</v>
+        <v>0.006521217255817376</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.004399922747766326</v>
+        <v>0.004363014154180438</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.009526988193856027</v>
+        <v>0.009556331511637747</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01413342825751105</v>
+        <v>0.01417503574214527</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.009375302270314204</v>
+        <v>0.009375123287530464</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01683890325641329</v>
+        <v>0.01684194234977896</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.01038196422814025</v>
+        <v>0.01071049260914045</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.009385772421166947</v>
+        <v>0.00920330434604541</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.01336317397680795</v>
+        <v>0.0134168526528634</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.0110983116935818</v>
+        <v>0.01118995083157292</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.008543812726676642</v>
+        <v>0.008302921142464332</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01376669724732113</v>
+        <v>0.01367628259453038</v>
       </c>
     </row>
     <row r="31">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1891</v>
+        <v>1899</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1839,13 +1839,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1973</v>
+        <v>2047</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>0</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7">
@@ -1856,29 +1856,29 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10422</v>
+        <v>10483</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6980</v>
+        <v>6691</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3527</v>
+        <v>3360</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5884</v>
+        <v>4569</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>3478</v>
+        <v>3256</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11945</v>
+        <v>11875</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>7863</v>
+        <v>6933</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4455</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="8">
@@ -1963,29 +1963,29 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4369</v>
+        <v>4253</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2240</v>
+        <v>2637</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>978</v>
+        <v>1002</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
-        <v>1279</v>
+        <v>1307</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7533</v>
+        <v>7809</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2198</v>
+        <v>2244</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3862</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="11">
@@ -1996,29 +1996,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20832</v>
+        <v>22464</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12664</v>
+        <v>13033</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9805</v>
+        <v>10654</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>10639</v>
+        <v>10264</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>8545</v>
+        <v>9591</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27990</v>
+        <v>25901</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12164</v>
+        <v>13307</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14127</v>
+        <v>15275</v>
       </c>
     </row>
     <row r="12">
@@ -2103,13 +2103,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>774</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5179</v>
+        <v>5281</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
@@ -2118,16 +2118,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1851</v>
+        <v>1688</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1922</v>
+        <v>1979</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>877</v>
+        <v>999</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8526</v>
+        <v>8605</v>
       </c>
     </row>
     <row r="15">
@@ -2138,31 +2138,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7495</v>
+        <v>8850</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7152</v>
+        <v>7353</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14730</v>
+        <v>14432</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8548</v>
+        <v>7547</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5663</v>
+        <v>6006</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7927</v>
+        <v>7992</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11324</v>
+        <v>10331</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8717</v>
+        <v>8564</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20329</v>
+        <v>20660</v>
       </c>
     </row>
     <row r="16">
@@ -2247,31 +2247,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2933</v>
+        <v>2904</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3325</v>
+        <v>4021</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3542</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="19">
@@ -2282,31 +2282,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8726</v>
+        <v>7744</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9014</v>
+        <v>7766</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10680</v>
+        <v>10113</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9192</v>
+        <v>9961</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15048</v>
+        <v>14376</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8108</v>
+        <v>8149</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13048</v>
+        <v>13890</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>17319</v>
+        <v>17715</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>14494</v>
+        <v>13998</v>
       </c>
     </row>
     <row r="20">
@@ -2391,31 +2391,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>945</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1562</v>
+        <v>1437</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1186</v>
+        <v>1197</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2996</v>
+        <v>2981</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3953</v>
+        <v>3710</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3901</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="23">
@@ -2426,31 +2426,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8784</v>
+        <v>9649</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9070</v>
+        <v>9461</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7724</v>
+        <v>8084</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>9054</v>
+        <v>8932</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>10465</v>
+        <v>11490</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5866</v>
+        <v>5969</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>13572</v>
+        <v>14904</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15510</v>
+        <v>15968</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>10956</v>
+        <v>11057</v>
       </c>
     </row>
     <row r="24">
@@ -2541,23 +2541,23 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3126</v>
+        <v>3176</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>2299</v>
+        <v>2426</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>6483</v>
+        <v>6452</v>
       </c>
     </row>
     <row r="27">
@@ -2568,29 +2568,29 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4816</v>
+        <v>6001</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5029</v>
+        <v>5722</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10317</v>
+        <v>10186</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6590</v>
+        <v>7568</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>8245</v>
+        <v>9177</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8520</v>
+        <v>9189</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4782</v>
+        <v>4802</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>15945</v>
+        <v>16005</v>
       </c>
     </row>
     <row r="28">
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3819</v>
+        <v>2958</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>6047</v>
+        <v>5678</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2848</v>
+        <v>2133</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2654</v>
+        <v>3480</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>11312</v>
+        <v>11192</v>
       </c>
     </row>
     <row r="31">
@@ -2710,31 +2710,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5973</v>
+        <v>5748</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>10346</v>
+        <v>9992</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15367</v>
+        <v>14468</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>10493</v>
+        <v>10541</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11432</v>
+        <v>11056</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>17115</v>
+        <v>16451</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>12470</v>
+        <v>12322</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>14628</v>
+        <v>19374</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>26529</v>
+        <v>26168</v>
       </c>
     </row>
     <row r="32">
@@ -2819,29 +2819,29 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2146</v>
+        <v>2260</v>
       </c>
       <c r="D34" s="6" t="inlineStr"/>
       <c r="E34" s="6" t="n">
-        <v>5256</v>
+        <v>5629</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3773</v>
+        <v>3760</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>4400</v>
+        <v>4617</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>11615</v>
+        <v>11491</v>
       </c>
     </row>
     <row r="35">
@@ -2852,29 +2852,29 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>12935</v>
+        <v>14820</v>
       </c>
       <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="6" t="n">
-        <v>17894</v>
+        <v>19622</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>8661</v>
+        <v>8885</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>13243</v>
+        <v>12468</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>13122</v>
+        <v>13296</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>17464</v>
+        <v>18133</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>13116</v>
+        <v>12091</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>27181</v>
+        <v>27335</v>
       </c>
     </row>
     <row r="36">
@@ -2959,31 +2959,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>22793</v>
+        <v>22002</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>13572</v>
+        <v>13651</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>34224</v>
+        <v>33335</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>15794</v>
+        <v>16944</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>12264</v>
+        <v>11970</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>29827</v>
+        <v>30199</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>43361</v>
+        <v>45530</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>30531</v>
+        <v>30274</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>69164</v>
+        <v>69377</v>
       </c>
     </row>
     <row r="39">
@@ -2994,31 +2994,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>48432</v>
+        <v>48575</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>31823</v>
+        <v>31822</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>59425</v>
+        <v>59436</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>36909</v>
+        <v>38077</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>33268</v>
+        <v>32621</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>49855</v>
+        <v>50055</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>77487</v>
+        <v>78127</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>59285</v>
+        <v>57613</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>99943</v>
+        <v>99287</v>
       </c>
     </row>
     <row r="40">
